--- a/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=Mediktor.xlsx
+++ b/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=Mediktor.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.231</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.321</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.323</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.726</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>0.386</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>0.643</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>0.345</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.571</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="6">
@@ -1019,46 +1019,74 @@
           <t>stats_for_f1-score</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.385</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.378</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0.378</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.168</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0.25</v>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>0.286</v>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>0.058</v>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>0.349</v>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="n">
+        <v>0.443</v>
+      </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.119</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>2.061</v>
+      </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>0.735</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>0.632</v>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>0.6870000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1066,46 +1094,74 @@
           <t>stats_for_f2-score</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.575</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.527</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0.527</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.223</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0.377</v>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>0.286</v>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>0.09</v>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>0.503</v>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="n">
+        <v>0.574</v>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0.21</v>
+      </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>2.337</v>
+      </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>0.804</v>
+      </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>0.75</v>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
+      <c r="AO7" t="n">
+        <v>0.779</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1114,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.694</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.643</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.662</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.233</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.519</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.662</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.662</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.465</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.804</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="9">
@@ -1241,124 +1297,124 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.285</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="10">
@@ -1368,124 +1424,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.571</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="11">
@@ -1495,124 +1551,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.571</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="12">
@@ -1622,52 +1678,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.414</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1676,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1685,43 +1741,43 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>12.667</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>3.559</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>3.334</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -1730,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1.167</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.111</v>
       </c>
     </row>
     <row r="13">
@@ -1749,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.857</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4.429</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.959</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.333</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.528</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.583</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.764</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.714</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.776</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.881</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.688</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.299</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>4.776</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.185</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>4.429</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>5.959</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>2.441</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>5.714</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>6.204</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>2.491</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>5.715</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.143</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.069</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1.429</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>2.286</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>0.776</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>0.881</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.905</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=Mediktor.xlsx
+++ b/stats/harvard/disease_type=less-common-diseases failure-type-ignored=any-error for app=Mediktor.xlsx
@@ -856,7 +856,7 @@
         <v>0.09</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.726</v>
+        <v>0.583</v>
       </c>
       <c r="AG4" t="n">
         <v>0.149</v>
@@ -983,7 +983,7 @@
         <v>0.495</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.571</v>
+        <v>0.857</v>
       </c>
       <c r="AG5" t="n">
         <v>0.122</v>
@@ -1070,7 +1070,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.061</v>
+        <v>0.694</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.337</v>
+        <v>0.783</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1260,7 +1260,7 @@
         <v>0.369</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.465</v>
+        <v>0.804</v>
       </c>
       <c r="AG8" t="n">
         <v>0.124</v>
@@ -1387,7 +1387,7 @@
         <v>0.35</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.285</v>
+        <v>0.714</v>
       </c>
       <c r="AG9" t="n">
         <v>0.204</v>
@@ -1514,7 +1514,7 @@
         <v>0.452</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.571</v>
+        <v>0.857</v>
       </c>
       <c r="AG10" t="n">
         <v>0.122</v>
@@ -1641,7 +1641,7 @@
         <v>0.452</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.571</v>
+        <v>0.857</v>
       </c>
       <c r="AG11" t="n">
         <v>0.122</v>
@@ -1768,7 +1768,7 @@
         <v>3.559</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.334</v>
+        <v>1.167</v>
       </c>
       <c r="AG12" t="n">
         <v>0.139</v>
@@ -1895,7 +1895,7 @@
         <v>2.491</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.715</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
         <v>1.143</v>
